--- a/resources/updated_sheet_with_supp_id.xlsx
+++ b/resources/updated_sheet_with_supp_id.xlsx
@@ -505,11 +505,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>lAUh0rW0</t>
+          <t>BSWb4NSH</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
@@ -542,11 +542,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ng04W9OE</t>
+          <t>NtcI4Ls5</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>401</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4">
@@ -579,11 +579,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>gWASwEV4</t>
+          <t>kbd1g8Ik</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>402</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5">
@@ -616,11 +616,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NeUg1pTt</t>
+          <t>N7Ft5EFx</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>403</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6">
@@ -653,11 +653,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7PMY3vfY</t>
+          <t>qQkvVUqw</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>404</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7">
@@ -690,11 +690,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fh5k8DYP</t>
+          <t>NNarMKHE</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>405</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8">
@@ -727,11 +727,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tg6CGKmz</t>
+          <t>G9o7QuDw</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>406</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9">
@@ -764,11 +764,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>JGd6daCT</t>
+          <t>jskTXWFZ</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>407</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10">
@@ -801,11 +801,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EelbgqNO</t>
+          <t>Sl7f3HrS</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>408</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11">
@@ -838,11 +838,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5lev4Zaa</t>
+          <t>AOBH3acD</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>409</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12">
@@ -875,11 +875,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2WwfRzaB</t>
+          <t>uqpm3xUk</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>410</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13">
@@ -912,11 +912,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AF6tXbPi</t>
+          <t>EBWVTGTQ</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>411</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14">
@@ -949,11 +949,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>fgL2k3eZ</t>
+          <t>awjMOGSj</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>412</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15">
@@ -986,11 +986,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>p0SEwmQh</t>
+          <t>3MWMMEpi</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>413</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nmqlodab</t>
+          <t>kicJtVgS</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>414</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ur336MJi</t>
+          <t>V2MYmWUs</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>415</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2hW5wgHq</t>
+          <t>yMvFfNeK</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>416</v>
+        <v>916</v>
       </c>
     </row>
     <row r="19">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>WV6Df9s6</t>
+          <t>0odAQ6ng</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>417</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20">
@@ -1171,11 +1171,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>lFSbsplV</t>
+          <t>qDjYc2ZR</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>418</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>uj80neM7</t>
+          <t>m0sZtDC5</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>419</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4kmmD6He</t>
+          <t>BmGyqcmT</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>420</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23">
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FDVpk8uO</t>
+          <t>s1QwALEv</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>421</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>nzcod8B0</t>
+          <t>8ahBQcjZ</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>422</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>V9XH9McV</t>
+          <t>ziHvugrw</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>423</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>gUpqCBxC</t>
+          <t>7XE7Tttd</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>424</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27">
@@ -1430,11 +1430,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bd5t9OhH</t>
+          <t>oQjEETHl</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>425</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28">
@@ -1467,11 +1467,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MPYjYHI0</t>
+          <t>SwHQBz3k</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>426</v>
+        <v>926</v>
       </c>
     </row>
     <row r="29">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kxcxAneY</t>
+          <t>uMNoEOcP</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>427</v>
+        <v>927</v>
       </c>
     </row>
     <row r="30">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C23maFK5</t>
+          <t>LACNNfqc</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>428</v>
+        <v>928</v>
       </c>
     </row>
     <row r="31">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ZWPXgTBr</t>
+          <t>QbAP5ESV</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>429</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32">
@@ -1615,11 +1615,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>UasLcC0q</t>
+          <t>kWk8JKj1</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>430</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>r8CgHpAd</t>
+          <t>x8H7RuOm</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>431</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ZJu4MMUv</t>
+          <t>GWDDst8s</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>432</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>QWVKa4B8</t>
+          <t>eF1s2hsx</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>433</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>LnbWMv5u</t>
+          <t>w5dCeceZ</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>434</v>
+        <v>934</v>
       </c>
     </row>
     <row r="37">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>dBlNo15o</t>
+          <t>jIHqTZxt</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>435</v>
+        <v>935</v>
       </c>
     </row>
     <row r="38">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6Tm3SHCd</t>
+          <t>1f0t3Adl</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>436</v>
+        <v>936</v>
       </c>
     </row>
     <row r="39">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>NJlV0LOq</t>
+          <t>lFUA7B9z</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>437</v>
+        <v>937</v>
       </c>
     </row>
     <row r="40">
@@ -1911,11 +1911,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AdrPgdKg</t>
+          <t>87zsiXzW</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>AKWaJnKk</t>
+          <t>R7Kn8ADD</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>439</v>
+        <v>939</v>
       </c>
     </row>
     <row r="42">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>mt98DyhY</t>
+          <t>ItRtUcUv</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ks6FtiWl</t>
+          <t>3dGqFxUP</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>441</v>
+        <v>941</v>
       </c>
     </row>
     <row r="44">
@@ -2059,11 +2059,11 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>NzcHEK7s</t>
+          <t>rf8rL68y</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>442</v>
+        <v>942</v>
       </c>
     </row>
     <row r="45">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>HHC27YWL</t>
+          <t>KcZ4ibAw</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>443</v>
+        <v>943</v>
       </c>
     </row>
     <row r="46">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lJIfaSoJ</t>
+          <t>3euP8e0J</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47">
@@ -2170,11 +2170,11 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>JmqY9sd6</t>
+          <t>zF2mEBbo</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>445</v>
+        <v>945</v>
       </c>
     </row>
     <row r="48">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>GsT59mTK</t>
+          <t>IAk46vxg</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>446</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49">
@@ -2244,11 +2244,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>988JCX8D</t>
+          <t>FA2QFLWb</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>447</v>
+        <v>947</v>
       </c>
     </row>
     <row r="50">
@@ -2281,11 +2281,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>AZHdcMlE</t>
+          <t>dackulsW</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>448</v>
+        <v>948</v>
       </c>
     </row>
     <row r="51">
@@ -2318,11 +2318,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A50c5w5W</t>
+          <t>gulnmEZc</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>449</v>
+        <v>949</v>
       </c>
     </row>
     <row r="52">
@@ -2355,11 +2355,11 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>vr90Rg65</t>
+          <t>8TY6I3kW</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
